--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234D755-A71B-45F2-927B-96144B00B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B8749-E0ED-4CA9-BE67-B85F3C4974D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -123,8 +123,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,11 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,85 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058E363-F70D-47B5-94FA-EAEA9DC84D1D}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>875</v>
+        <v>147.65625</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,6 +563,7 @@
       <c r="B8">
         <v>-9</v>
       </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -650,7 +586,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,6 +712,80 @@
     <sortCondition ref="A10:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058E363-F70D-47B5-94FA-EAEA9DC84D1D}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B8749-E0ED-4CA9-BE67-B85F3C4974D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C1106-3013-427E-90FA-0C9AC150BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Complete" sheetId="1" r:id="rId1"/>
+    <sheet name="Part" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.45</v>
+        <v>-0.22500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3500</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-9</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>147.65625</v>
+        <v>276.85547000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-9</v>
+        <v>-22.274999999999999</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>937.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>-0.5625</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.01</v>
+        <v>3.3750000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>9000</v>
+        <v>11137.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>0.01</v>
+        <v>3.7499999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058E363-F70D-47B5-94FA-EAEA9DC84D1D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,45 +744,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>9000</v>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C1106-3013-427E-90FA-0C9AC150BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3DCC12-E677-4910-923B-4A3CBC74B55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B16" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-1.5</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3675</v>
+        <v>5512.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>-0.45</v>
+        <v>-0.33750000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>937.5</v>
+        <v>1481.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.5625</v>
+        <v>-0.50624999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>11137.5</v>
+        <v>16706.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -758,37 +758,11 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>-9</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>-0.5</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3DCC12-E677-4910-923B-4A3CBC74B55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78237769-E637-4AB8-A3B1-307B83CCEA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="21600" windowHeight="8415" activeTab="1" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
     <sheet name="Part" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -62,12 +61,6 @@
     <t>wind_max</t>
   </si>
   <si>
-    <t xml:space="preserve"> wind_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wind_shift</t>
-  </si>
-  <si>
     <t>coal_slope</t>
   </si>
   <si>
@@ -83,25 +76,10 @@
     <t>gas_ct_shift</t>
   </si>
   <si>
-    <t xml:space="preserve"> gas_ct_max</t>
-  </si>
-  <si>
     <t>gas_cc_slope</t>
   </si>
   <si>
-    <t xml:space="preserve"> gas_cc_shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gas_cc_max</t>
-  </si>
-  <si>
     <t>solar_slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solar_shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solar_max</t>
   </si>
   <si>
     <t>wind_slope</t>
@@ -120,19 +98,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -160,12 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="A2:B16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A7:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,127 +478,132 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.375</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.22500000000000001</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5512.5</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>-13.5</v>
+        <v>16740</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.25</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>276.85547000000003</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-22.274999999999999</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.33750000000000002</v>
+        <v>-0.85399999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
+      <c r="A10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>1481.25</v>
+        <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.50624999999999998</v>
+        <v>-0.217</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>3.3750000000000002E-2</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>16706.25</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-4.5</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>3.7499999999999999E-3</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
+      <c r="A16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>6000</v>
-      </c>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -642,7 +612,7 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -672,44 +642,14 @@
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E44">
-    <sortCondition ref="A10:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E34">
+    <sortCondition ref="A4:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -717,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058E363-F70D-47B5-94FA-EAEA9DC84D1D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -743,181 +683,43 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-1.5</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>-0.45</v>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0.624</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4376DE-6112-4E11-8077-9916E0308639}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-9</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6000</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78237769-E637-4AB8-A3B1-307B83CCEA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="21600" windowHeight="8415" activeTab="1" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="21600" windowHeight="8420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
     <sheet name="Part" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -133,7 +132,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,22 +443,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A7:B16"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -481,7 +480,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -489,7 +488,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -497,7 +496,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -505,7 +504,7 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -513,142 +512,142 @@
         <v>9782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.0424220000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.592889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.85399999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-2.93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.4161600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.294222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-5.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.0545429999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E34">
+  <sortState ref="A4:E34">
     <sortCondition ref="A4:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -656,19 +655,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A058E363-F70D-47B5-94FA-EAEA9DC84D1D}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,43 +681,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>-5.0424220000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3">
+        <v>1.592889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>0.624</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>-2.4161600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B9">
+        <v>1.294222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>-3.0545429999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>1.55</v>
       </c>
     </row>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\ABM_electricity_sector_Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677CB9E-2244-41EA-88C8-98D8E9C5A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="21600" windowHeight="8420" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -20,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -96,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -132,7 +124,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,22 +435,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -480,7 +472,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -488,7 +480,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -496,7 +488,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -504,7 +496,7 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -512,7 +504,7 @@
         <v>9782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -520,7 +512,7 @@
         <v>-5.0424220000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -528,7 +520,7 @@
         <v>1.592889</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -536,7 +528,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -544,7 +536,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -552,7 +544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -560,7 +552,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -568,7 +560,7 @@
         <v>-2.4161600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -576,7 +568,7 @@
         <v>1.294222</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -584,7 +576,7 @@
         <v>-3.0545429999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -592,62 +584,62 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A4:E34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E34">
     <sortCondition ref="A4:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -655,19 +647,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:A11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,15 +673,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-5.0424220000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-4.3869100000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -697,7 +689,7 @@
         <v>1.592889</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -705,7 +697,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -713,47 +705,47 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-1.0065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.58687199999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>-2.4161600000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-2.3718650000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.294222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.2719320000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-3.0545429999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-3.2480000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677CB9E-2244-41EA-88C8-98D8E9C5A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DFD6A3-9243-405F-B2C2-4E10D1C8902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-4.3869100000000003</v>
+        <v>-5.19503</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-4</v>
+        <v>-3.2631600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.58687199999999995</v>
+        <v>0.60231599999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.2719320000000001</v>
+        <v>1.2384599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-3.2480000000000002</v>
+        <v>-2.4342800000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\ABM_electricity_sector_Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DFD6A3-9243-405F-B2C2-4E10D1C8902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -124,7 +123,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,22 +434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -472,7 +471,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,7 +479,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -488,7 +487,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -496,7 +495,7 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -504,7 +503,7 @@
         <v>9782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -512,7 +511,7 @@
         <v>-5.0424220000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -520,7 +519,7 @@
         <v>1.592889</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -528,7 +527,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -536,7 +535,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -544,7 +543,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -552,7 +551,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -560,7 +559,7 @@
         <v>-2.4161600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -568,7 +567,7 @@
         <v>1.294222</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -576,7 +575,7 @@
         <v>-3.0545429999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,62 +583,62 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E34">
+  <sortState ref="A4:E34">
     <sortCondition ref="A4:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -647,19 +646,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,84 +672,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-5.19503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1.592889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-3.2631600000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1.0065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.60231599999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>-2.3718650000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.2384599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-2.4342800000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\ABM_electricity_sector_Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C051BD-1EC0-4D13-A69C-673B3D3FBB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,7 +124,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,22 +435,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -471,7 +472,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -479,7 +480,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -487,7 +488,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -495,7 +496,7 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -503,142 +504,142 @@
         <v>9782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-5.0424220000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.592889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-2.4161600000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>1.294222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-3.0545429999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A4:E34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E34">
     <sortCondition ref="A4:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -646,19 +647,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -680,7 +681,7 @@
         <v>-5.0599999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,7 +689,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -696,7 +697,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -704,7 +705,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -712,7 +713,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -720,7 +721,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -728,7 +729,7 @@
         <v>-2.33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -736,7 +737,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -744,7 +745,7 @@
         <v>-2.42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\ABM_electricity_sector_Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C051BD-1EC0-4D13-A69C-673B3D3FBB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -124,7 +123,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,22 +434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B16" sqref="A7:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -472,7 +471,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,7 +479,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -488,7 +487,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -496,7 +495,7 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -504,15 +503,15 @@
         <v>9782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -520,23 +519,23 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -544,102 +543,106 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1.37</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E34">
+  <sortState ref="A4:E34">
     <sortCondition ref="A4:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -647,19 +650,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B11"/>
+      <selection activeCell="B9" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,15 +676,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -689,68 +692,52 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>-2.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
